--- a/Algoritmos ECI.xlsx
+++ b/Algoritmos ECI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\github\Algoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8062E9-502B-4EE9-9A98-3055177543D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FEDD30-B905-40BB-BA7E-10AF4DDD2830}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recursión" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>MELO MERCHAN WILLSON SNEITDER</t>
   </si>
@@ -551,7 +551,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -710,7 +710,9 @@
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -782,7 +784,9 @@
       <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -870,7 +874,9 @@
       <c r="C20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">

--- a/Algoritmos ECI.xlsx
+++ b/Algoritmos ECI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\github\Algoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FEDD30-B905-40BB-BA7E-10AF4DDD2830}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95347AF-2FB2-4078-BD6E-A90ADD387792}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>MELO MERCHAN WILLSON SNEITDER</t>
   </si>
@@ -164,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -189,6 +189,12 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -224,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -232,6 +238,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -551,7 +560,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -578,7 +587,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -604,7 +613,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -630,7 +639,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -704,7 +713,7 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -742,13 +751,15 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -812,7 +823,9 @@
       <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -842,13 +855,15 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -1914,5 +1929,6 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Algoritmos ECI.xlsx
+++ b/Algoritmos ECI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\github\Algoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95347AF-2FB2-4078-BD6E-A90ADD387792}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156A93D6-E5C3-4A89-8660-90551661BFD1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>MELO MERCHAN WILLSON SNEITDER</t>
   </si>
@@ -158,13 +158,16 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Kha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -191,6 +194,20 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -230,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -241,6 +258,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -560,7 +581,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -837,9 +858,12 @@
       <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -849,9 +873,11 @@
       <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -864,8 +890,9 @@
       <c r="D18" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -879,7 +906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -893,7 +920,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -905,7 +932,7 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -915,13 +942,15 @@
       <c r="C22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -929,7 +958,7 @@
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -941,7 +970,7 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
@@ -952,13 +981,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Algoritmos ECI.xlsx
+++ b/Algoritmos ECI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\github\Algoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156A93D6-E5C3-4A89-8660-90551661BFD1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1CC323-6D01-4D4A-B2F4-45BD92AC8E67}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -977,8 +977,8 @@
         <v>29</v>
       </c>
       <c r="D25" s="3">
-        <f>COUNTIF(D2:D24,"Hecho")</f>
-        <v>0</v>
+        <f>COUNTIF(D2:D24,"Done")</f>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Algoritmos ECI.xlsx
+++ b/Algoritmos ECI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20340"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\github\Algoritmos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2133541\Documents\Algoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1CC323-6D01-4D4A-B2F4-45BD92AC8E67}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9A277E-D93B-4119-AB0E-125FBD008086}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -581,10 +581,10 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="53.7109375" customWidth="1"/>

--- a/Algoritmos ECI.xlsx
+++ b/Algoritmos ECI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20340"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2133541\Documents\Algoritmos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\github\Algoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9A277E-D93B-4119-AB0E-125FBD008086}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6E9D41-0F22-41B4-94BD-A4ABEA75355D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recursión" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>MELO MERCHAN WILLSON SNEITDER</t>
   </si>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -581,10 +581,10 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="53.7109375" customWidth="1"/>
@@ -692,7 +692,9 @@
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
@@ -716,7 +718,9 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
@@ -978,7 +982,7 @@
       </c>
       <c r="D25" s="3">
         <f>COUNTIF(D2:D24,"Done")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Algoritmos ECI.xlsx
+++ b/Algoritmos ECI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\github\Algoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6E9D41-0F22-41B4-94BD-A4ABEA75355D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569B70A0-5EEA-4990-9DB2-AEEEF7FABC32}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
   <si>
     <t>MELO MERCHAN WILLSON SNEITDER</t>
   </si>
@@ -161,13 +161,31 @@
   </si>
   <si>
     <t>Kha</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>352 - The Seasonal War uva</t>
+  </si>
+  <si>
+    <t>280 Vertex uva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFS </t>
+  </si>
+  <si>
+    <t>10067 Playing with wheels uva</t>
+  </si>
+  <si>
+    <t>Grafos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -213,6 +231,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -247,10 +277,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -260,10 +290,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,7 +613,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -589,7 +621,9 @@
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="53.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="26" width="17.140625" customWidth="1"/>
+    <col min="4" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="26" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -760,7 +794,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -771,8 +805,11 @@
         <v>5</v>
       </c>
       <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -785,8 +822,14 @@
       <c r="D10" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -797,8 +840,14 @@
         <v>5</v>
       </c>
       <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -809,6 +858,12 @@
         <v>5</v>
       </c>
       <c r="D12" s="4"/>
+      <c r="E12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">

--- a/Algoritmos ECI.xlsx
+++ b/Algoritmos ECI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\github\Algoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569B70A0-5EEA-4990-9DB2-AEEEF7FABC32}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B110B2-1BAB-4CBF-9727-FC3D2BAF1292}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
   <si>
     <t>MELO MERCHAN WILLSON SNEITDER</t>
   </si>
@@ -179,6 +179,18 @@
   </si>
   <si>
     <t>Grafos</t>
+  </si>
+  <si>
+    <t>439-knight moves uva</t>
+  </si>
+  <si>
+    <t>11518 Dominos 2 uva</t>
+  </si>
+  <si>
+    <t>dfs</t>
+  </si>
+  <si>
+    <t>battleship</t>
   </si>
 </sst>
 </file>
@@ -613,7 +625,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -865,7 +877,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -878,8 +890,14 @@
       <c r="D13" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -892,8 +910,14 @@
       <c r="D14" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -905,6 +929,12 @@
       </c>
       <c r="D15" s="4" t="s">
         <v>45</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
